--- a/AdditionalMetrics/AdditionalMetricsExperiments_1_2_3_Architecture_1_SmartGateway.xlsx
+++ b/AdditionalMetrics/AdditionalMetricsExperiments_1_2_3_Architecture_1_SmartGateway.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\ACEPTADOS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,9 +64,6 @@
     <t>T_mem_RAM (bytes)</t>
   </si>
   <si>
-    <t>RSS (Resisden Set Size) (bytes)</t>
-  </si>
-  <si>
     <t>VSZ (Virtual Set Size) (bytes)</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Experiment 3</t>
+  </si>
+  <si>
+    <t>RSS (Resident Set Size) (bytes)</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:G472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -428,7 +428,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -445,13 +445,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3427,7 +3427,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B133" s="1"/>
     </row>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B278" s="1"/>
     </row>
